--- a/src/test/resources/Excel/MetaData RunMode1.xlsx
+++ b/src/test/resources/Excel/MetaData RunMode1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="332">
   <si>
     <t>Result ID</t>
   </si>
@@ -932,6 +932,90 @@
   </si>
   <si>
     <t>A1988312</t>
+  </si>
+  <si>
+    <t>20221230-Salm-3530Updt</t>
+  </si>
+  <si>
+    <t>A1144301</t>
+  </si>
+  <si>
+    <t>TestCartridge-3530</t>
+  </si>
+  <si>
+    <t>A1144302</t>
+  </si>
+  <si>
+    <t>A1144303</t>
+  </si>
+  <si>
+    <t>A1144304</t>
+  </si>
+  <si>
+    <t>A1144305</t>
+  </si>
+  <si>
+    <t>A1144306</t>
+  </si>
+  <si>
+    <t>A1144307</t>
+  </si>
+  <si>
+    <t>A1144308</t>
+  </si>
+  <si>
+    <t>A1144309</t>
+  </si>
+  <si>
+    <t>A1144310</t>
+  </si>
+  <si>
+    <t>A1144311</t>
+  </si>
+  <si>
+    <t>A1144312</t>
+  </si>
+  <si>
+    <t>20221230-Cocci-5550Updt</t>
+  </si>
+  <si>
+    <t>A1144501</t>
+  </si>
+  <si>
+    <t>TestCartridge-5550</t>
+  </si>
+  <si>
+    <t>A1144502</t>
+  </si>
+  <si>
+    <t>A1144503</t>
+  </si>
+  <si>
+    <t>A1144504</t>
+  </si>
+  <si>
+    <t>A1144505</t>
+  </si>
+  <si>
+    <t>A1144506</t>
+  </si>
+  <si>
+    <t>A1144507</t>
+  </si>
+  <si>
+    <t>A1144508</t>
+  </si>
+  <si>
+    <t>A1144509</t>
+  </si>
+  <si>
+    <t>A1144510</t>
+  </si>
+  <si>
+    <t>A1144511</t>
+  </si>
+  <si>
+    <t>A1144512</t>
   </si>
 </sst>
 </file>
@@ -1406,7 +1490,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -1418,7 +1502,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -1463,7 +1547,7 @@
         <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="U2" t="s">
         <v>27</v>
@@ -1480,7 +1564,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -1492,7 +1576,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -1537,7 +1621,7 @@
         <v>26</v>
       </c>
       <c r="T3" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="U3" t="s">
         <v>27</v>
@@ -1554,7 +1638,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -1566,7 +1650,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -1611,7 +1695,7 @@
         <v>26</v>
       </c>
       <c r="T4" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="U4" t="s">
         <v>27</v>
@@ -1628,7 +1712,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
@@ -1640,7 +1724,7 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -1685,7 +1769,7 @@
         <v>26</v>
       </c>
       <c r="T5" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="U5" t="s">
         <v>27</v>
@@ -1702,7 +1786,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -1714,7 +1798,7 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -1759,7 +1843,7 @@
         <v>26</v>
       </c>
       <c r="T6" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="U6" t="s">
         <v>27</v>
@@ -1776,7 +1860,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
@@ -1788,7 +1872,7 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -1833,7 +1917,7 @@
         <v>26</v>
       </c>
       <c r="T7" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="U7" t="s">
         <v>27</v>
@@ -1850,7 +1934,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
@@ -1862,7 +1946,7 @@
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -1907,7 +1991,7 @@
         <v>26</v>
       </c>
       <c r="T8" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="U8" t="s">
         <v>27</v>
@@ -1924,7 +2008,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -1936,7 +2020,7 @@
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
@@ -1981,7 +2065,7 @@
         <v>26</v>
       </c>
       <c r="T9" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="U9" t="s">
         <v>27</v>
@@ -1998,7 +2082,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
@@ -2010,7 +2094,7 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -2055,7 +2139,7 @@
         <v>26</v>
       </c>
       <c r="T10" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="U10" t="s">
         <v>27</v>
@@ -2072,7 +2156,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
@@ -2084,7 +2168,7 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -2129,7 +2213,7 @@
         <v>26</v>
       </c>
       <c r="T11" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="U11" t="s">
         <v>27</v>
@@ -2146,7 +2230,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="B12" t="s">
         <v>46</v>
@@ -2158,7 +2242,7 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
@@ -2203,7 +2287,7 @@
         <v>26</v>
       </c>
       <c r="T12" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="U12" t="s">
         <v>27</v>
@@ -2220,7 +2304,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
@@ -2232,7 +2316,7 @@
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
@@ -2277,7 +2361,7 @@
         <v>26</v>
       </c>
       <c r="T13" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="U13" t="s">
         <v>27</v>

--- a/src/test/resources/Excel/MetaData RunMode1.xlsx
+++ b/src/test/resources/Excel/MetaData RunMode1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3085" uniqueCount="349">
   <si>
     <t>Result ID</t>
   </si>
@@ -1016,6 +1016,57 @@
   </si>
   <si>
     <t>A1144512</t>
+  </si>
+  <si>
+    <t>20231201-Early-TT01Updt</t>
+  </si>
+  <si>
+    <t>12/01/2023</t>
+  </si>
+  <si>
+    <t>TestCartridge-2704</t>
+  </si>
+  <si>
+    <t>20230112-Salm-2742Updt</t>
+  </si>
+  <si>
+    <t>A1023201</t>
+  </si>
+  <si>
+    <t>TestCartridge-2742</t>
+  </si>
+  <si>
+    <t>A1023202</t>
+  </si>
+  <si>
+    <t>A1023203</t>
+  </si>
+  <si>
+    <t>A1023204</t>
+  </si>
+  <si>
+    <t>A1023205</t>
+  </si>
+  <si>
+    <t>A1023206</t>
+  </si>
+  <si>
+    <t>A1023207</t>
+  </si>
+  <si>
+    <t>A1023208</t>
+  </si>
+  <si>
+    <t>A1023209</t>
+  </si>
+  <si>
+    <t>A1023210</t>
+  </si>
+  <si>
+    <t>A1023211</t>
+  </si>
+  <si>
+    <t>A1023212</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1541,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -1502,7 +1553,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -1547,7 +1598,7 @@
         <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="U2" t="s">
         <v>27</v>
@@ -1564,7 +1615,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -1576,7 +1627,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -1621,7 +1672,7 @@
         <v>26</v>
       </c>
       <c r="T3" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="U3" t="s">
         <v>27</v>
@@ -1638,7 +1689,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -1650,7 +1701,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -1695,7 +1746,7 @@
         <v>26</v>
       </c>
       <c r="T4" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="U4" t="s">
         <v>27</v>
@@ -1712,7 +1763,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
@@ -1724,7 +1775,7 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -1769,7 +1820,7 @@
         <v>26</v>
       </c>
       <c r="T5" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="U5" t="s">
         <v>27</v>
@@ -1786,7 +1837,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -1798,7 +1849,7 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -1843,7 +1894,7 @@
         <v>26</v>
       </c>
       <c r="T6" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="U6" t="s">
         <v>27</v>
@@ -1860,7 +1911,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
@@ -1872,7 +1923,7 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -1917,7 +1968,7 @@
         <v>26</v>
       </c>
       <c r="T7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="U7" t="s">
         <v>27</v>
@@ -1934,7 +1985,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
@@ -1946,7 +1997,7 @@
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -1991,7 +2042,7 @@
         <v>26</v>
       </c>
       <c r="T8" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="U8" t="s">
         <v>27</v>
@@ -2008,7 +2059,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -2020,7 +2071,7 @@
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
@@ -2065,7 +2116,7 @@
         <v>26</v>
       </c>
       <c r="T9" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="U9" t="s">
         <v>27</v>
@@ -2082,7 +2133,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
@@ -2094,7 +2145,7 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -2139,7 +2190,7 @@
         <v>26</v>
       </c>
       <c r="T10" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="U10" t="s">
         <v>27</v>
@@ -2156,7 +2207,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
@@ -2168,7 +2219,7 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -2213,7 +2264,7 @@
         <v>26</v>
       </c>
       <c r="T11" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="U11" t="s">
         <v>27</v>
@@ -2230,7 +2281,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="B12" t="s">
         <v>46</v>
@@ -2242,7 +2293,7 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
@@ -2287,7 +2338,7 @@
         <v>26</v>
       </c>
       <c r="T12" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="U12" t="s">
         <v>27</v>
@@ -2304,7 +2355,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
@@ -2316,7 +2367,7 @@
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
@@ -2361,7 +2412,7 @@
         <v>26</v>
       </c>
       <c r="T13" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="U13" t="s">
         <v>27</v>
